--- a/Team-Data/2011-12/4-6-2011-12.xlsx
+++ b/Team-Data/2011-12/4-6-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
         <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
         <v>15.2</v>
       </c>
       <c r="P2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R2" t="n">
         <v>10.1</v>
@@ -714,10 +781,10 @@
         <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
         <v>13.9</v>
@@ -735,19 +802,19 @@
         <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -768,13 +835,13 @@
         <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
@@ -795,7 +862,7 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -956,13 +1023,13 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,13 +1050,13 @@
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,19 +1115,19 @@
         <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.416</v>
       </c>
       <c r="L4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.299</v>
+        <v>0.302</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
@@ -1069,22 +1136,22 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
@@ -1096,16 +1163,16 @@
         <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
         <v>88</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.7</v>
+        <v>-12.8</v>
       </c>
       <c r="AD4" t="n">
         <v>28</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1147,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1156,28 +1223,28 @@
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
         <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1329,13 +1396,13 @@
         <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
@@ -1356,7 +1423,7 @@
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
         <v>6.8</v>
@@ -1424,31 +1491,31 @@
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S6" t="n">
         <v>29.6</v>
       </c>
       <c r="T6" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1460,16 +1527,16 @@
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.4</v>
+        <v>-6.6</v>
       </c>
       <c r="AD6" t="n">
         <v>28</v>
@@ -1487,10 +1554,10 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1502,13 +1569,13 @@
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1520,19 +1587,19 @@
         <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.554</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.44</v>
@@ -1606,13 +1673,13 @@
         <v>22.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O7" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P7" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.757</v>
@@ -1621,7 +1688,7 @@
         <v>9.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
         <v>42.4</v>
@@ -1642,40 +1709,40 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
         <v>94.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1687,13 +1754,13 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
@@ -1705,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1720,10 +1787,10 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1776,43 +1843,43 @@
         <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="O8" t="n">
         <v>20.3</v>
       </c>
       <c r="P8" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R8" t="n">
         <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T8" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U8" t="n">
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1824,7 +1891,7 @@
         <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
         <v>22.5</v>
@@ -1833,16 +1900,16 @@
         <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1854,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1869,19 +1936,19 @@
         <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.382</v>
+        <v>0.389</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1964,22 +2031,22 @@
         <v>0.438</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
         <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
@@ -1997,28 +2064,28 @@
         <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="AC9" t="n">
         <v>-5.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2057,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2072,19 +2139,19 @@
         <v>27</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.389</v>
+        <v>0.396</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,34 +2207,34 @@
         <v>37.4</v>
       </c>
       <c r="J10" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
         <v>20.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P10" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R10" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S10" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T10" t="n">
         <v>39.1</v>
@@ -2176,7 +2243,7 @@
         <v>22.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.1</v>
@@ -2191,16 +2258,16 @@
         <v>21.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2221,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2233,22 +2300,22 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2257,16 +2324,16 @@
         <v>4</v>
       </c>
       <c r="AW10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY10" t="n">
         <v>11</v>
       </c>
-      <c r="AX10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.362</v>
+        <v>0.358</v>
       </c>
       <c r="O11" t="n">
         <v>15.6</v>
@@ -2343,25 +2410,25 @@
         <v>19.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T11" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
         <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>4.9</v>
@@ -2376,19 +2443,19 @@
         <v>18.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -2397,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2409,10 +2476,10 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2451,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.618</v>
+        <v>0.611</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,79 +2571,79 @@
         <v>35.5</v>
       </c>
       <c r="J12" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
         <v>0.779</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
         <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V12" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC12" t="n">
         <v>2.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,10 +2661,10 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>3</v>
@@ -2606,34 +2673,34 @@
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
         <v>23</v>
@@ -2809,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
         <v>48.5</v>
@@ -2877,28 +2944,28 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.318</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
         <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
         <v>22</v>
@@ -2910,7 +2977,7 @@
         <v>5.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
@@ -2919,16 +2986,16 @@
         <v>17.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>22</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>20</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
         <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3059,16 +3126,16 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.323</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q15" t="n">
         <v>0.751</v>
@@ -3098,22 +3165,22 @@
         <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,16 +3189,16 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3149,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
@@ -3173,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
@@ -3185,7 +3252,7 @@
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.722</v>
+        <v>0.736</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
       <c r="O16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q16" t="n">
         <v>0.777</v>
@@ -3259,7 +3326,7 @@
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T16" t="n">
         <v>41.6</v>
@@ -3271,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3280,28 +3347,28 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG16" t="n">
         <v>3</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
@@ -3322,13 +3389,13 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
@@ -3352,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
         <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.491</v>
+        <v>0.481</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,16 +3481,16 @@
         <v>37.9</v>
       </c>
       <c r="J17" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L17" t="n">
         <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N17" t="n">
         <v>0.345</v>
@@ -3432,49 +3499,49 @@
         <v>16.4</v>
       </c>
       <c r="P17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
         <v>41.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
         <v>14</v>
       </c>
       <c r="W17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA17" t="n">
         <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3501,10 +3568,10 @@
         <v>14</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3531,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>20</v>
@@ -3540,13 +3607,13 @@
         <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.351</v>
+        <v>0.339</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="J19" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="N19" t="n">
         <v>0.345</v>
@@ -3799,19 +3866,19 @@
         <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U19" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
@@ -3826,31 +3893,31 @@
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.3</v>
+        <v>-5.6</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3877,10 +3944,10 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,7 +3956,7 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>21</v>
@@ -3901,7 +3968,7 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>10</v>
@@ -3910,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.255</v>
+        <v>0.259</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3972,28 +4039,28 @@
         <v>11.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O20" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
@@ -4014,13 +4081,13 @@
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.2</v>
+        <v>89</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,28 +4117,28 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>26</v>
@@ -4080,10 +4147,10 @@
         <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -4202,25 +4269,25 @@
         <v>2.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF21" t="n">
         <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>16</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4244,13 +4311,13 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4262,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.741</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
@@ -4336,16 +4403,16 @@
         <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P22" t="n">
         <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
@@ -4357,49 +4424,49 @@
         <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V22" t="n">
         <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
         <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4617,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4787,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J25" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
         <v>6.6</v>
@@ -4885,61 +4952,61 @@
         <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P25" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB25" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4948,16 +5015,16 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
         <v>18</v>
@@ -4984,19 +5051,19 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY25" t="n">
         <v>5</v>
       </c>
-      <c r="AY25" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
         <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.482</v>
+        <v>0.473</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.446</v>
@@ -5064,28 +5131,28 @@
         <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O26" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.793</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
         <v>14.1</v>
@@ -5094,25 +5161,25 @@
         <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
         <v>1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,16 +5191,16 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
@@ -5157,19 +5224,19 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
@@ -5178,16 +5245,16 @@
         <v>8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
         <v>26</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
         <v>25</v>
       </c>
-      <c r="AG27" t="n">
-        <v>26</v>
-      </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5351,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
         <v>18</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5369,7 +5436,7 @@
         <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
         <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,28 +5495,28 @@
         <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P28" t="n">
         <v>21.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R28" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S28" t="n">
         <v>32.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V28" t="n">
         <v>13.3</v>
@@ -5458,37 +5525,37 @@
         <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.1</v>
+        <v>101.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AD28" t="n">
         <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5497,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5536,13 +5603,13 @@
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.357</v>
+        <v>0.364</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J29" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P29" t="n">
         <v>21.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V29" t="n">
         <v>15.1</v>
@@ -5640,37 +5707,37 @@
         <v>6.8</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA29" t="n">
         <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5688,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
@@ -5697,7 +5764,7 @@
         <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5715,13 +5782,13 @@
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.518</v>
+        <v>0.509</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
@@ -5780,19 +5847,19 @@
         <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.308</v>
+        <v>0.307</v>
       </c>
       <c r="O30" t="n">
         <v>18.8</v>
@@ -5801,19 +5868,19 @@
         <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
         <v>13.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V30" t="n">
         <v>14.2</v>
@@ -5825,31 +5892,31 @@
         <v>5.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5861,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5879,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
@@ -5894,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,43 +6029,43 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O31" t="n">
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T31" t="n">
         <v>41.4</v>
       </c>
       <c r="U31" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
@@ -6007,22 +6074,22 @@
         <v>6.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6058,16 +6125,16 @@
         <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6076,7 +6143,7 @@
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6085,16 +6152,16 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2011-12</t>
+          <t>2012-04-06</t>
         </is>
       </c>
     </row>
